--- a/Crédito disponível - Centralização - Campus Estância.xlsx
+++ b/Crédito disponível - Centralização - Campus Estância.xlsx
@@ -620,13 +620,13 @@
       </c>
       <c r="L11" s="12"/>
       <c r="M11" s="12">
-        <v>912075.62</v>
+        <v>920047.22</v>
       </c>
       <c r="N11" s="12">
-        <v>374123.93</v>
+        <v>472753.46</v>
       </c>
       <c r="O11" s="13">
-        <v>347898.44</v>
+        <v>461023.84</v>
       </c>
     </row>
     <row r="12">
@@ -652,10 +652,10 @@
         <v>352379.41</v>
       </c>
       <c r="N12" s="12">
-        <v>135023.95</v>
+        <v>144482.74</v>
       </c>
       <c r="O12" s="13">
-        <v>135023.95</v>
+        <v>144482.74</v>
       </c>
     </row>
     <row r="13">
@@ -684,7 +684,7 @@
         <v>8250</v>
       </c>
       <c r="O13" s="13">
-        <v>6600</v>
+        <v>8250</v>
       </c>
     </row>
     <row r="14">
@@ -773,7 +773,7 @@
         <v>21</v>
       </c>
       <c r="K16" s="12">
-        <v>223094.74</v>
+        <v>213987.19</v>
       </c>
       <c r="L16" s="12">
         <v>0</v>
@@ -805,7 +805,7 @@
         <v>3149.5</v>
       </c>
       <c r="N17" s="12">
-        <v>2191.5</v>
+        <v>3149.5</v>
       </c>
       <c r="O17" s="13">
         <v>2191.5</v>
@@ -827,7 +827,7 @@
         <v>29</v>
       </c>
       <c r="K18" s="12">
-        <v>0</v>
+        <v>1135.95</v>
       </c>
       <c r="L18" s="12">
         <v>0</v>

--- a/Crédito disponível - Centralização - Campus Estância.xlsx
+++ b/Crédito disponível - Centralização - Campus Estância.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="44">
   <si>
     <t>Crédito disponível - Centralização - Campus Estância</t>
   </si>
@@ -127,6 +127,12 @@
     <t xml:space="preserve">INST.FED.DE EDUC.,CIENC.E TEC.DE SERGIPE</t>
   </si>
   <si>
+    <t xml:space="preserve">339018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUXILIO FINANCEIRO A ESTUDANTES</t>
+  </si>
+  <si>
     <t xml:space="preserve">1444000000</t>
   </si>
   <si>
@@ -137,12 +143,6 @@
   </si>
   <si>
     <t xml:space="preserve">ASSISTENCIA AOS ESTUDANTES DAS INSTITUICOES FEDERAIS DE EDUC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">339018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AUXILIO FINANCEIRO A ESTUDANTES</t>
   </si>
 </sst>
 </file>
@@ -387,7 +387,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:O23"/>
+  <dimension ref="A1:O24"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -652,7 +652,7 @@
         <v>352379.41</v>
       </c>
       <c r="N12" s="12">
-        <v>144482.74</v>
+        <v>159051.07</v>
       </c>
       <c r="O12" s="13">
         <v>144482.74</v>
@@ -710,7 +710,7 @@
         <v>3140.88</v>
       </c>
       <c r="N14" s="12">
-        <v>1308.7</v>
+        <v>1570.44</v>
       </c>
       <c r="O14" s="13">
         <v>1308.7</v>
@@ -773,7 +773,7 @@
         <v>21</v>
       </c>
       <c r="K16" s="12">
-        <v>213987.19</v>
+        <v>163587.19</v>
       </c>
       <c r="L16" s="12">
         <v>0</v>
@@ -792,24 +792,20 @@
       <c r="G17" s="11"/>
       <c r="H17" s="11"/>
       <c r="I17" s="11" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="J17" s="11" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="K17" s="12">
         <v>0</v>
       </c>
       <c r="L17" s="12"/>
       <c r="M17" s="12">
-        <v>3149.5</v>
-      </c>
-      <c r="N17" s="12">
-        <v>3149.5</v>
-      </c>
-      <c r="O17" s="13">
-        <v>2191.5</v>
-      </c>
+        <v>50400</v>
+      </c>
+      <c r="N17" s="12"/>
+      <c r="O17" s="13"/>
     </row>
     <row r="18">
       <c r="A18" s="10"/>
@@ -821,22 +817,24 @@
       <c r="G18" s="11"/>
       <c r="H18" s="11"/>
       <c r="I18" s="11" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="J18" s="11" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="K18" s="12">
-        <v>1135.95</v>
-      </c>
-      <c r="L18" s="12">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="L18" s="12"/>
       <c r="M18" s="12">
-        <v>8100</v>
-      </c>
-      <c r="N18" s="12"/>
-      <c r="O18" s="13"/>
+        <v>3149.5</v>
+      </c>
+      <c r="N18" s="12">
+        <v>3149.5</v>
+      </c>
+      <c r="O18" s="13">
+        <v>2191.5</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="10"/>
@@ -848,76 +846,62 @@
       <c r="G19" s="11"/>
       <c r="H19" s="11"/>
       <c r="I19" s="11" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J19" s="11" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K19" s="12">
-        <v>0</v>
-      </c>
-      <c r="L19" s="12"/>
+        <v>1135.95</v>
+      </c>
+      <c r="L19" s="12">
+        <v>0</v>
+      </c>
       <c r="M19" s="12">
-        <v>14612.07</v>
-      </c>
-      <c r="N19" s="12">
-        <v>14612.07</v>
-      </c>
-      <c r="O19" s="13">
-        <v>14612.07</v>
-      </c>
+        <v>8100</v>
+      </c>
+      <c r="N19" s="12"/>
+      <c r="O19" s="13"/>
     </row>
     <row r="20">
       <c r="A20" s="10"/>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
       <c r="D20" s="11"/>
-      <c r="E20" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="G20" s="11">
-        <v>3</v>
-      </c>
-      <c r="H20" s="11" t="s">
-        <v>19</v>
-      </c>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
       <c r="I20" s="11" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="J20" s="11" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="K20" s="12">
-        <v>330287</v>
-      </c>
-      <c r="L20" s="12">
-        <v>0</v>
-      </c>
-      <c r="M20" s="12"/>
-      <c r="N20" s="12"/>
-      <c r="O20" s="13"/>
+        <v>0</v>
+      </c>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12">
+        <v>14612.07</v>
+      </c>
+      <c r="N20" s="12">
+        <v>14612.07</v>
+      </c>
+      <c r="O20" s="13">
+        <v>14612.07</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="10"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="F21" s="11" t="s">
         <v>41</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F21" s="11" t="s">
-        <v>18</v>
       </c>
       <c r="G21" s="11">
         <v>3</v>
@@ -932,76 +916,117 @@
         <v>21</v>
       </c>
       <c r="K21" s="12">
-        <v>222651.84</v>
-      </c>
-      <c r="L21" s="12"/>
+        <v>330287</v>
+      </c>
+      <c r="L21" s="12">
+        <v>0</v>
+      </c>
       <c r="M21" s="12"/>
       <c r="N21" s="12"/>
       <c r="O21" s="13"/>
     </row>
     <row r="22">
-      <c r="A22" s="14"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
+      <c r="A22" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" s="11">
+        <v>3</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>19</v>
+      </c>
       <c r="I22" s="11" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="J22" s="11" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="K22" s="12">
-        <v>0</v>
-      </c>
-      <c r="L22" s="12">
-        <v>0</v>
-      </c>
-      <c r="M22" s="12">
-        <v>103016.16</v>
-      </c>
-      <c r="N22" s="12">
-        <v>22866.97</v>
-      </c>
-      <c r="O22" s="13">
-        <v>22506.97</v>
-      </c>
+        <v>222651.84</v>
+      </c>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="13"/>
     </row>
     <row r="23">
       <c r="A23" s="14"/>
       <c r="B23" s="15"/>
       <c r="C23" s="15"/>
       <c r="D23" s="15"/>
-      <c r="E23" s="15" t="s">
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="F23" s="15" t="s">
+      <c r="J23" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="G23" s="15">
+      <c r="K23" s="12">
+        <v>0</v>
+      </c>
+      <c r="L23" s="12">
+        <v>0</v>
+      </c>
+      <c r="M23" s="12">
+        <v>103016.16</v>
+      </c>
+      <c r="N23" s="12">
+        <v>29086.97</v>
+      </c>
+      <c r="O23" s="13">
+        <v>22506.97</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="14"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="G24" s="15">
         <v>3</v>
       </c>
-      <c r="H23" s="15" t="s">
+      <c r="H24" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="I23" s="15" t="s">
+      <c r="I24" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="J23" s="15" t="s">
+      <c r="J24" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="K23" s="12">
+      <c r="K24" s="12">
         <v>28999</v>
       </c>
-      <c r="L23" s="12">
-        <v>0</v>
-      </c>
-      <c r="M23" s="12"/>
-      <c r="N23" s="12"/>
-      <c r="O23" s="13"/>
+      <c r="L24" s="12">
+        <v>0</v>
+      </c>
+      <c r="M24" s="12"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="29">
@@ -1012,28 +1037,28 @@
     <mergeCell ref="E6:F7"/>
     <mergeCell ref="G6:H7"/>
     <mergeCell ref="I6:J7"/>
-    <mergeCell ref="A8:A20"/>
-    <mergeCell ref="B8:B20"/>
+    <mergeCell ref="A8:A21"/>
+    <mergeCell ref="B8:B21"/>
     <mergeCell ref="C8:C15"/>
     <mergeCell ref="D8:D15"/>
     <mergeCell ref="E8:E15"/>
     <mergeCell ref="F8:F15"/>
     <mergeCell ref="G8:G15"/>
     <mergeCell ref="H8:H15"/>
-    <mergeCell ref="C16:C20"/>
-    <mergeCell ref="D16:D20"/>
-    <mergeCell ref="E16:E19"/>
-    <mergeCell ref="F16:F19"/>
-    <mergeCell ref="G16:G19"/>
-    <mergeCell ref="H16:H19"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="D21:D23"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="C16:C21"/>
+    <mergeCell ref="D16:D21"/>
+    <mergeCell ref="E16:E20"/>
+    <mergeCell ref="F16:F20"/>
+    <mergeCell ref="G16:G20"/>
+    <mergeCell ref="H16:H20"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
   </mergeCells>
 </worksheet>
 </file>
--- a/Crédito disponível - Centralização - Campus Estância.xlsx
+++ b/Crédito disponível - Centralização - Campus Estância.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="46">
   <si>
     <t>Crédito disponível - Centralização - Campus Estância</t>
   </si>
@@ -121,6 +121,18 @@
     <t xml:space="preserve">DESPESAS DE EXERCICIOS ANTERIORES</t>
   </si>
   <si>
+    <t xml:space="preserve">339147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OBRIG.TRIBUT.E CONTRIB-OP.INTRA-ORCAMENTARIAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1444000000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEM.APL.REC.TIT.TN,EX.RF.DIV.PUB.</t>
+  </si>
+  <si>
     <t xml:space="preserve">158134</t>
   </si>
   <si>
@@ -131,12 +143,6 @@
   </si>
   <si>
     <t xml:space="preserve">AUXILIO FINANCEIRO A ESTUDANTES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1444000000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DEM.APL.REC.TIT.TN,EX.RF.DIV.PUB.</t>
   </si>
   <si>
     <t xml:space="preserve">2994</t>
@@ -387,7 +393,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:O24"/>
+  <dimension ref="A1:O29"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -395,7 +401,7 @@
   <cols>
     <col min="11" max="11" width="12.14285714" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.14285714" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.14285714" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42857143" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12.14285714" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12.14285714" bestFit="1" customWidth="1"/>
   </cols>
@@ -566,10 +572,14 @@
       </c>
       <c r="L9" s="12"/>
       <c r="M9" s="12">
-        <v>341.02</v>
-      </c>
-      <c r="N9" s="12"/>
-      <c r="O9" s="13"/>
+        <v>3341.02</v>
+      </c>
+      <c r="N9" s="12">
+        <v>281.2</v>
+      </c>
+      <c r="O9" s="13">
+        <v>281.2</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="10"/>
@@ -594,10 +604,10 @@
         <v>32064.71</v>
       </c>
       <c r="N10" s="12">
-        <v>10789.13</v>
+        <v>18707.97</v>
       </c>
       <c r="O10" s="13">
-        <v>10789.13</v>
+        <v>16687.05</v>
       </c>
     </row>
     <row r="11">
@@ -620,13 +630,13 @@
       </c>
       <c r="L11" s="12"/>
       <c r="M11" s="12">
-        <v>920047.22</v>
+        <v>1058660.48</v>
       </c>
       <c r="N11" s="12">
-        <v>472753.46</v>
+        <v>666297.09</v>
       </c>
       <c r="O11" s="13">
-        <v>461023.84</v>
+        <v>572880.59</v>
       </c>
     </row>
     <row r="12">
@@ -649,13 +659,13 @@
       </c>
       <c r="L12" s="12"/>
       <c r="M12" s="12">
-        <v>352379.41</v>
+        <v>365961.09</v>
       </c>
       <c r="N12" s="12">
-        <v>159051.07</v>
+        <v>191097.19</v>
       </c>
       <c r="O12" s="13">
-        <v>144482.74</v>
+        <v>186457.19</v>
       </c>
     </row>
     <row r="13">
@@ -681,10 +691,10 @@
         <v>20850</v>
       </c>
       <c r="N13" s="12">
-        <v>8250</v>
+        <v>11850</v>
       </c>
       <c r="O13" s="13">
-        <v>8250</v>
+        <v>11850</v>
       </c>
     </row>
     <row r="14">
@@ -707,13 +717,13 @@
       </c>
       <c r="L14" s="12"/>
       <c r="M14" s="12">
-        <v>3140.88</v>
+        <v>3382.45</v>
       </c>
       <c r="N14" s="12">
-        <v>1570.44</v>
+        <v>2073.75</v>
       </c>
       <c r="O14" s="13">
-        <v>1308.7</v>
+        <v>1832.18</v>
       </c>
     </row>
     <row r="15">
@@ -739,46 +749,34 @@
         <v>9503.59</v>
       </c>
       <c r="N15" s="12">
-        <v>7931.85</v>
+        <v>9503.59</v>
       </c>
       <c r="O15" s="13">
-        <v>7931.85</v>
+        <v>9503.59</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="10"/>
       <c r="B16" s="11"/>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="J16" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="E16" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" s="11">
-        <v>3</v>
-      </c>
-      <c r="H16" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="I16" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="J16" s="11" t="s">
-        <v>21</v>
-      </c>
       <c r="K16" s="12">
-        <v>163587.19</v>
-      </c>
-      <c r="L16" s="12">
-        <v>0</v>
-      </c>
-      <c r="M16" s="12"/>
+        <v>0</v>
+      </c>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12">
+        <v>701.99</v>
+      </c>
       <c r="N16" s="12"/>
       <c r="O16" s="13"/>
     </row>
@@ -787,23 +785,29 @@
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
+      <c r="E17" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="G17" s="11">
+        <v>3</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>19</v>
+      </c>
       <c r="I17" s="11" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="J17" s="11" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="K17" s="12">
         <v>0</v>
       </c>
       <c r="L17" s="12"/>
-      <c r="M17" s="12">
-        <v>50400</v>
-      </c>
+      <c r="M17" s="12"/>
       <c r="N17" s="12"/>
       <c r="O17" s="13"/>
     </row>
@@ -817,24 +821,20 @@
       <c r="G18" s="11"/>
       <c r="H18" s="11"/>
       <c r="I18" s="11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J18" s="11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K18" s="12">
         <v>0</v>
       </c>
       <c r="L18" s="12"/>
       <c r="M18" s="12">
-        <v>3149.5</v>
-      </c>
-      <c r="N18" s="12">
-        <v>3149.5</v>
-      </c>
-      <c r="O18" s="13">
-        <v>2191.5</v>
-      </c>
+        <v>97784.68</v>
+      </c>
+      <c r="N18" s="12"/>
+      <c r="O18" s="13"/>
     </row>
     <row r="19">
       <c r="A19" s="10"/>
@@ -852,13 +852,11 @@
         <v>29</v>
       </c>
       <c r="K19" s="12">
-        <v>1135.95</v>
-      </c>
-      <c r="L19" s="12">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="L19" s="12"/>
       <c r="M19" s="12">
-        <v>8100</v>
+        <v>5425</v>
       </c>
       <c r="N19" s="12"/>
       <c r="O19" s="13"/>
@@ -866,170 +864,311 @@
     <row r="20">
       <c r="A20" s="10"/>
       <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
+      <c r="C20" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" s="11">
+        <v>3</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>19</v>
+      </c>
       <c r="I20" s="11" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="J20" s="11" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="K20" s="12">
-        <v>0</v>
-      </c>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12">
-        <v>14612.07</v>
-      </c>
-      <c r="N20" s="12">
-        <v>14612.07</v>
-      </c>
-      <c r="O20" s="13">
-        <v>14612.07</v>
-      </c>
+        <v>5404.25</v>
+      </c>
+      <c r="L20" s="12">
+        <v>0</v>
+      </c>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="13"/>
     </row>
     <row r="21">
       <c r="A21" s="10"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
       <c r="D21" s="11"/>
-      <c r="E21" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="F21" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="G21" s="11">
-        <v>3</v>
-      </c>
-      <c r="H21" s="11" t="s">
-        <v>19</v>
-      </c>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
       <c r="I21" s="11" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="J21" s="11" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="K21" s="12">
-        <v>330287</v>
-      </c>
-      <c r="L21" s="12">
-        <v>0</v>
-      </c>
-      <c r="M21" s="12"/>
+        <v>0</v>
+      </c>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12">
+        <v>50400</v>
+      </c>
       <c r="N21" s="12"/>
       <c r="O21" s="13"/>
     </row>
     <row r="22">
-      <c r="A22" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="D22" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G22" s="11">
-        <v>3</v>
-      </c>
-      <c r="H22" s="11" t="s">
-        <v>19</v>
-      </c>
+      <c r="A22" s="10"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
       <c r="I22" s="11" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="J22" s="11" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="K22" s="12">
-        <v>222651.84</v>
+        <v>0</v>
       </c>
       <c r="L22" s="12"/>
-      <c r="M22" s="12"/>
-      <c r="N22" s="12"/>
-      <c r="O22" s="13"/>
+      <c r="M22" s="12">
+        <v>6137.5</v>
+      </c>
+      <c r="N22" s="12">
+        <v>6137.5</v>
+      </c>
+      <c r="O22" s="13">
+        <v>6137.5</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="14"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
+      <c r="A23" s="10"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
       <c r="E23" s="11"/>
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
       <c r="H23" s="11"/>
       <c r="I23" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J23" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="K23" s="12">
+        <v>1135.95</v>
+      </c>
+      <c r="L23" s="12">
+        <v>0</v>
+      </c>
+      <c r="M23" s="12">
+        <v>8100</v>
+      </c>
+      <c r="N23" s="12"/>
+      <c r="O23" s="13"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="10"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="J24" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="K24" s="12">
+        <v>0</v>
+      </c>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12">
+        <v>14612.07</v>
+      </c>
+      <c r="N24" s="12">
+        <v>14612.07</v>
+      </c>
+      <c r="O24" s="13">
+        <v>14612.07</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="10"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="J25" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="K25" s="12">
+        <v>0</v>
+      </c>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="13"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="10"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="J23" s="11" t="s">
+      <c r="F26" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="K23" s="12">
-        <v>0</v>
-      </c>
-      <c r="L23" s="12">
-        <v>0</v>
-      </c>
-      <c r="M23" s="12">
-        <v>103016.16</v>
-      </c>
-      <c r="N23" s="12">
-        <v>29086.97</v>
-      </c>
-      <c r="O23" s="13">
-        <v>22506.97</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="14"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15" t="s">
+      <c r="G26" s="11">
+        <v>3</v>
+      </c>
+      <c r="H26" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I26" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J26" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="K26" s="12">
+        <v>156288.07</v>
+      </c>
+      <c r="L26" s="12">
+        <v>0</v>
+      </c>
+      <c r="M26" s="12"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="13"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="F24" s="15" t="s">
+      <c r="D27" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="G24" s="15">
+      <c r="E27" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G27" s="11">
         <v>3</v>
       </c>
-      <c r="H24" s="15" t="s">
+      <c r="H27" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="I24" s="15" t="s">
+      <c r="I27" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="J24" s="15" t="s">
+      <c r="J27" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="K24" s="12">
+      <c r="K27" s="12">
+        <v>214851.84</v>
+      </c>
+      <c r="L27" s="12"/>
+      <c r="M27" s="12"/>
+      <c r="N27" s="12"/>
+      <c r="O27" s="13"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="14"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="J28" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="K28" s="12">
+        <v>0</v>
+      </c>
+      <c r="L28" s="12">
+        <v>0</v>
+      </c>
+      <c r="M28" s="12">
+        <v>110816.16</v>
+      </c>
+      <c r="N28" s="12">
+        <v>57376.24</v>
+      </c>
+      <c r="O28" s="13">
+        <v>57016.24</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="14"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="F29" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="G29" s="15">
+        <v>3</v>
+      </c>
+      <c r="H29" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I29" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="J29" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="K29" s="12">
         <v>28999</v>
       </c>
-      <c r="L24" s="12">
-        <v>0</v>
-      </c>
-      <c r="M24" s="12"/>
-      <c r="N24" s="12"/>
-      <c r="O24" s="13"/>
+      <c r="L29" s="12">
+        <v>0</v>
+      </c>
+      <c r="M29" s="12"/>
+      <c r="N29" s="12"/>
+      <c r="O29" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="29">
+  <mergeCells count="33">
     <mergeCell ref="A3:O3"/>
     <mergeCell ref="A4:O4"/>
     <mergeCell ref="A6:B7"/>
@@ -1037,28 +1176,32 @@
     <mergeCell ref="E6:F7"/>
     <mergeCell ref="G6:H7"/>
     <mergeCell ref="I6:J7"/>
-    <mergeCell ref="A8:A21"/>
-    <mergeCell ref="B8:B21"/>
-    <mergeCell ref="C8:C15"/>
-    <mergeCell ref="D8:D15"/>
-    <mergeCell ref="E8:E15"/>
-    <mergeCell ref="F8:F15"/>
-    <mergeCell ref="G8:G15"/>
-    <mergeCell ref="H8:H15"/>
-    <mergeCell ref="C16:C21"/>
-    <mergeCell ref="D16:D21"/>
-    <mergeCell ref="E16:E20"/>
-    <mergeCell ref="F16:F20"/>
-    <mergeCell ref="G16:G20"/>
-    <mergeCell ref="H16:H20"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="D22:D24"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="A8:A26"/>
+    <mergeCell ref="B8:B26"/>
+    <mergeCell ref="C8:C19"/>
+    <mergeCell ref="D8:D19"/>
+    <mergeCell ref="E8:E16"/>
+    <mergeCell ref="F8:F16"/>
+    <mergeCell ref="G8:G16"/>
+    <mergeCell ref="H8:H16"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="G17:G19"/>
+    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="C20:C26"/>
+    <mergeCell ref="D20:D26"/>
+    <mergeCell ref="E20:E25"/>
+    <mergeCell ref="F20:F25"/>
+    <mergeCell ref="G20:G25"/>
+    <mergeCell ref="H20:H25"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="H27:H28"/>
   </mergeCells>
 </worksheet>
 </file>
--- a/Crédito disponível - Centralização - Campus Estância.xlsx
+++ b/Crédito disponível - Centralização - Campus Estância.xlsx
@@ -636,7 +636,7 @@
         <v>666297.09</v>
       </c>
       <c r="O11" s="13">
-        <v>572880.59</v>
+        <v>624605.1</v>
       </c>
     </row>
     <row r="12">
@@ -723,7 +723,7 @@
         <v>2073.75</v>
       </c>
       <c r="O14" s="13">
-        <v>1832.18</v>
+        <v>2073.75</v>
       </c>
     </row>
     <row r="15">
@@ -777,8 +777,12 @@
       <c r="M16" s="12">
         <v>701.99</v>
       </c>
-      <c r="N16" s="12"/>
-      <c r="O16" s="13"/>
+      <c r="N16" s="12">
+        <v>701.99</v>
+      </c>
+      <c r="O16" s="13">
+        <v>701.99</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="10"/>
@@ -1128,7 +1132,7 @@
         <v>110816.16</v>
       </c>
       <c r="N28" s="12">
-        <v>57376.24</v>
+        <v>63376.24</v>
       </c>
       <c r="O28" s="13">
         <v>57016.24</v>

--- a/Crédito disponível - Centralização - Campus Estância.xlsx
+++ b/Crédito disponível - Centralização - Campus Estância.xlsx
@@ -636,7 +636,7 @@
         <v>666297.09</v>
       </c>
       <c r="O11" s="13">
-        <v>624605.1</v>
+        <v>655674.83</v>
       </c>
     </row>
     <row r="12">
@@ -665,7 +665,7 @@
         <v>191097.19</v>
       </c>
       <c r="O12" s="13">
-        <v>186457.19</v>
+        <v>191097.19</v>
       </c>
     </row>
     <row r="13">
@@ -1135,7 +1135,7 @@
         <v>63376.24</v>
       </c>
       <c r="O28" s="13">
-        <v>57016.24</v>
+        <v>63016.24</v>
       </c>
     </row>
     <row r="29">
